--- a/Case_Study_Outline.xlsx
+++ b/Case_Study_Outline.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailitsligo-my.sharepoint.com/personal/schwab-mccoy_aimee_itsligo_ie/Documents/Statistics Case Studies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="8_{18D18EF4-4C1E-4EEA-8932-8BD3F6F8C6A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{12E477DC-D8B6-4D2A-BF60-5B161C7FB86E}"/>
+  <xr:revisionPtr revIDLastSave="206" documentId="8_{18D18EF4-4C1E-4EEA-8932-8BD3F6F8C6A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{253943CB-7C80-47AC-AA86-17BCE5394F37}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{47068879-D6E6-43F0-8374-84BF26CBD6A5}"/>
+    <workbookView xWindow="29385" yWindow="1905" windowWidth="13860" windowHeight="12930" xr2:uid="{47068879-D6E6-43F0-8374-84BF26CBD6A5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Biostatistics" sheetId="1" r:id="rId1"/>
+    <sheet name="General Statistics" sheetId="2" r:id="rId2"/>
+    <sheet name="Business Statistics" sheetId="3" r:id="rId3"/>
+    <sheet name="Math Stats" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="82">
   <si>
     <t>Learning objective</t>
   </si>
@@ -45,12 +48,6 @@
     <t>Sensitivity and specificity</t>
   </si>
   <si>
-    <t>Measures of center</t>
-  </si>
-  <si>
-    <t>Measures of spread</t>
-  </si>
-  <si>
     <t>Normal distribution</t>
   </si>
   <si>
@@ -126,12 +123,6 @@
     <t>Daily vitamin C use during cold/flu season</t>
   </si>
   <si>
-    <t>Bar charts and histograms</t>
-  </si>
-  <si>
-    <t>Box plots and scatterplots</t>
-  </si>
-  <si>
     <t>Breast cancer screening</t>
   </si>
   <si>
@@ -154,6 +145,144 @@
   </si>
   <si>
     <t>Completed</t>
+  </si>
+  <si>
+    <t>Box plots and scatterplots - mosaic</t>
+  </si>
+  <si>
+    <t>Bar charts and histograms - mosaic</t>
+  </si>
+  <si>
+    <t>Measures of center - mosaic</t>
+  </si>
+  <si>
+    <t>Measures of spread - mosaic</t>
+  </si>
+  <si>
+    <t>Measures of spread - tidy</t>
+  </si>
+  <si>
+    <t>Measures of center - tidy</t>
+  </si>
+  <si>
+    <t>Box plots and scatterplots - tidy</t>
+  </si>
+  <si>
+    <t>Order statistics</t>
+  </si>
+  <si>
+    <t>Poisson distribution</t>
+  </si>
+  <si>
+    <t>Geometric distribution</t>
+  </si>
+  <si>
+    <t>Hypergeometric distribution</t>
+  </si>
+  <si>
+    <t>Choosing the best discrete distribution</t>
+  </si>
+  <si>
+    <t>Uniform distribution</t>
+  </si>
+  <si>
+    <t>Gamma distribution</t>
+  </si>
+  <si>
+    <t>Exponential distribution</t>
+  </si>
+  <si>
+    <t>Beta distribution</t>
+  </si>
+  <si>
+    <t>Probability integral transformation</t>
+  </si>
+  <si>
+    <t>Expected value and variance</t>
+  </si>
+  <si>
+    <t>Independence and covariance</t>
+  </si>
+  <si>
+    <t>Central Limit Theorem</t>
+  </si>
+  <si>
+    <t>WDIW: Two-sample t-test or ANOVA</t>
+  </si>
+  <si>
+    <t>WDIW: Ratio of two for equal standard deviations</t>
+  </si>
+  <si>
+    <t>WDIW: Inverting a hypothesis test</t>
+  </si>
+  <si>
+    <t>WDIW: Why does it work</t>
+  </si>
+  <si>
+    <t>Confidence level v. coverage level</t>
+  </si>
+  <si>
+    <t>Minimum variance unbiased estimators</t>
+  </si>
+  <si>
+    <t>Bar charts - tidy</t>
+  </si>
+  <si>
+    <t>Bar charts - mosaic</t>
+  </si>
+  <si>
+    <t>Histograms - tidy</t>
+  </si>
+  <si>
+    <t>Histograms - mosaic</t>
+  </si>
+  <si>
+    <t>Diabetes treatment</t>
+  </si>
+  <si>
+    <t>Body temperature and birthweight</t>
+  </si>
+  <si>
+    <t>https://aimeeschwabmccoy.shinyapps.io/01-barcharts_mosaic</t>
+  </si>
+  <si>
+    <t>https://aimeeschwabmccoy.shinyapps.io/01-barcharts_tidy/</t>
+  </si>
+  <si>
+    <t>https://aimeeschwabmccoy.shinyapps.io/01-histograms_mosaic/</t>
+  </si>
+  <si>
+    <t>https://aimeeschwabmccoy.shinyapps.io/01-histograms_tidy/</t>
+  </si>
+  <si>
+    <t>Anesthesia recovery and cholesterol</t>
+  </si>
+  <si>
+    <t>https://aimeeschwabmccoy.shinyapps.io/02-boxplots_tidy/</t>
+  </si>
+  <si>
+    <t>https://aimeeschwabmccoy.shinyapps.io/02-boxplots_mosaic/</t>
+  </si>
+  <si>
+    <t>BRFSS and cholesterol</t>
+  </si>
+  <si>
+    <t>https://aimeeschwabmccoy.shinyapps.io/03-center_mosaic/</t>
+  </si>
+  <si>
+    <t>https://aimeeschwabmccoy.shinyapps.io/03-center_tidy/</t>
+  </si>
+  <si>
+    <t>https://aimeeschwabmccoy.shinyapps.io/03-spread_mosaic/</t>
+  </si>
+  <si>
+    <t>Contingency tables - tidy</t>
+  </si>
+  <si>
+    <t>Contingency tables - mosaic</t>
+  </si>
+  <si>
+    <t>https://aimeeschwabmccoy.shinyapps.io/03-spread_tidy/</t>
   </si>
 </sst>
 </file>
@@ -218,12 +347,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -539,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC0D7BE-72D4-443D-B102-2BC285383BA4}">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -556,7 +686,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -565,13 +695,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -579,97 +709,610 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="3">
+        <v>44581</v>
+      </c>
+      <c r="E2" s="3">
+        <v>44581</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="3">
+        <v>44581</v>
+      </c>
+      <c r="E3" s="3">
+        <v>44581</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="3">
+        <v>44581</v>
+      </c>
+      <c r="E4" s="3">
+        <v>44581</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="3">
+        <v>44581</v>
+      </c>
+      <c r="E5" s="3">
+        <v>44581</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="3">
+        <v>44581</v>
+      </c>
+      <c r="E6" s="3">
+        <v>44581</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="3">
+        <v>44581</v>
+      </c>
+      <c r="E7" s="3">
+        <v>44581</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="3">
+        <v>44582</v>
+      </c>
+      <c r="E8" s="3">
+        <v>44582</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="3">
+        <v>44582</v>
+      </c>
+      <c r="E9" s="3">
+        <v>44582</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="3">
+        <v>44582</v>
+      </c>
+      <c r="E10" s="3">
+        <v>44582</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="3">
+        <v>44582</v>
+      </c>
+      <c r="E11" s="3">
+        <v>44582</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="3">
+        <v>44574</v>
+      </c>
+      <c r="E14" s="3">
+        <v>44575</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <f t="shared" ref="A15:A35" si="0">A14+1</f>
+        <v>6</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="3">
+        <v>44574</v>
+      </c>
+      <c r="E15" s="3">
+        <v>44575</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <f>A15+1</f>
+        <v>7</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="3">
+        <v>44575</v>
+      </c>
+      <c r="E16" s="3">
+        <v>44575</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <f>A16+1</f>
+        <v>8</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="3">
+        <v>44575</v>
+      </c>
+      <c r="E18" s="3">
+        <v>44575</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F18" r:id="rId1" xr:uid="{0934F81F-F9D8-4AAD-8B9C-39A4C9791BF2}"/>
+    <hyperlink ref="F16" r:id="rId2" xr:uid="{50D8A874-B21C-4128-B226-FDC3389F3105}"/>
+    <hyperlink ref="F15" r:id="rId3" xr:uid="{941A8F29-973C-4641-831A-6DE8987380FE}"/>
+    <hyperlink ref="F14" r:id="rId4" xr:uid="{BE40AD1D-885D-4BE1-A87B-1978872A7E1E}"/>
+    <hyperlink ref="F3" r:id="rId5" xr:uid="{4B33FA43-4E19-486D-B144-331344C4CDF8}"/>
+    <hyperlink ref="F2" r:id="rId6" xr:uid="{17568A9E-84D9-4198-BF5B-55FF74AC3A5E}"/>
+    <hyperlink ref="F5" r:id="rId7" xr:uid="{5ECE74DD-F924-4BBF-A276-F9335F818A58}"/>
+    <hyperlink ref="F4" r:id="rId8" xr:uid="{C870B2B5-C6D0-4A46-89EF-EEEC29520BEA}"/>
+    <hyperlink ref="F6" r:id="rId9" xr:uid="{1673FD1A-3615-4A50-B48C-1B090E31933B}"/>
+    <hyperlink ref="F7" r:id="rId10" xr:uid="{DC7A18DE-0BD0-4913-BFD8-32DED1C50146}"/>
+    <hyperlink ref="F9" r:id="rId11" xr:uid="{66BF8A77-4BBA-4623-9107-9C39F876E48A}"/>
+    <hyperlink ref="F8" r:id="rId12" xr:uid="{DD780980-BDE2-44A7-A4DF-74FE3A11F6BF}"/>
+    <hyperlink ref="F11" r:id="rId13" xr:uid="{514E88AF-F347-410C-A364-70434D2D0D96}"/>
+    <hyperlink ref="F10" r:id="rId14" xr:uid="{3EE37314-D1C9-4322-9E97-7C70107F749E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId15"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351C1A6E-E945-43E5-9906-043A649F4649}">
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection sqref="A1:F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="40.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>30</v>
       </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
-        <f>A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
-        <f t="shared" ref="A5:A27" si="0">A4+1</f>
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
-        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="3">
-        <v>44574</v>
-      </c>
-      <c r="E6" s="3">
-        <v>44575</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>35</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
-        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="3">
-        <v>44574</v>
-      </c>
-      <c r="E7" s="3">
-        <v>44575</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
-        <f>A7+1</f>
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="3">
-        <v>44575</v>
-      </c>
-      <c r="E8" s="3">
-        <v>44575</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>37</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -677,29 +1320,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A10:A27" si="0">A9+1</f>
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="3">
-        <v>44575</v>
-      </c>
-      <c r="E10" s="3">
-        <v>44575</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>38</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -707,8 +1346,12 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -716,8 +1359,12 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -725,8 +1372,12 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -734,8 +1385,12 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -743,8 +1398,12 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -752,116 +1411,799 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB4464C-48BB-475E-B47D-1E7A947F2C18}">
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="40.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <f>A8+1</f>
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <f t="shared" ref="A10:A27" si="0">A9+1</f>
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <f t="shared" si="0"/>
+      <c r="B18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29759219-5420-495D-B05D-9B7CDF91BAD8}">
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="40.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F10" r:id="rId1" xr:uid="{0934F81F-F9D8-4AAD-8B9C-39A4C9791BF2}"/>
-    <hyperlink ref="F8" r:id="rId2" xr:uid="{50D8A874-B21C-4128-B226-FDC3389F3105}"/>
-    <hyperlink ref="F7" r:id="rId3" xr:uid="{941A8F29-973C-4641-831A-6DE8987380FE}"/>
-    <hyperlink ref="F6" r:id="rId4" xr:uid="{BE40AD1D-885D-4BE1-A87B-1978872A7E1E}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId5"/>
 </worksheet>
 </file>